--- a/P05/Scrum_ELSA_Sprint_1.xlsx
+++ b/P05/Scrum_ELSA_Sprint_1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachaelrocha/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachaelrocha/Documents/GitHub/cse1325/P05/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC002BB8-5B1B-EE46-A3D8-776F9F7DDE02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA985419-1AB3-E142-B1F4-C632E2008D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40500" yWindow="500" windowWidth="35200" windowHeight="18660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="148">
   <si>
     <t>Product Name:</t>
   </si>
@@ -461,6 +461,9 @@
     <t>Team Grumpy</t>
   </si>
   <si>
+    <t>Finished in Sprint 1</t>
+  </si>
+  <si>
     <t>In Work</t>
   </si>
   <si>
@@ -473,10 +476,16 @@
     <t>Copy build file into repo and test compile Customer</t>
   </si>
   <si>
-    <t>Write TestCustomer regression test</t>
-  </si>
-  <si>
     <t>Add Customer to GitHub</t>
+  </si>
+  <si>
+    <t>Completed Day 7</t>
+  </si>
+  <si>
+    <t>Write Object Class</t>
+  </si>
+  <si>
+    <t>Data Validation</t>
   </si>
 </sst>
 </file>
@@ -981,19 +990,19 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1278,28 +1287,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3654,8 +3663,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3863,11 +3872,11 @@
       </c>
       <c r="B13" s="5">
         <f>B12-C13</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="9">
         <f>COUNTIF(G$24:G$100,"Finished in Sprint 1")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="5"/>
@@ -3887,7 +3896,7 @@
       </c>
       <c r="B14" s="5">
         <f>B13-C14</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="9">
         <f>COUNTIF(G$24:G$100,"Finished in Sprint 2")</f>
@@ -3911,7 +3920,7 @@
       </c>
       <c r="B15" s="5">
         <f>B14-C15</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="9">
         <f>COUNTIF(G$24:G$100,"Finished in Sprint 3")</f>
@@ -3935,7 +3944,7 @@
       </c>
       <c r="B16" s="5">
         <f>B15-C16</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="9">
         <f>COUNTIF(G$24:G$100,"Finished in Sprint 4")</f>
@@ -3955,7 +3964,7 @@
       </c>
       <c r="B17" s="5">
         <f>B16-C17</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="9">
         <f>COUNTIF(G$24:G$100,"Finished in Sprint 4")</f>
@@ -4090,7 +4099,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H24" s="18" t="s">
         <v>31</v>
@@ -4156,7 +4165,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H26" s="18" t="s">
         <v>31</v>
@@ -4187,7 +4196,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H27" s="18" t="s">
         <v>31</v>
@@ -4218,7 +4227,7 @@
         <v>1</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H28" s="18" t="s">
         <v>31</v>
@@ -4247,7 +4256,7 @@
       </c>
       <c r="F29" s="17"/>
       <c r="G29" s="17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H29" s="18" t="s">
         <v>31</v>
@@ -4278,7 +4287,7 @@
       </c>
       <c r="F30" s="17"/>
       <c r="G30" s="17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H30" s="18" t="s">
         <v>31</v>
@@ -4309,7 +4318,7 @@
       </c>
       <c r="F31" s="17"/>
       <c r="G31" s="17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H31" s="18" t="s">
         <v>31</v>
@@ -4340,7 +4349,7 @@
       </c>
       <c r="F32" s="17"/>
       <c r="G32" s="17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H32" s="18" t="s">
         <v>62</v>
@@ -4371,7 +4380,7 @@
       </c>
       <c r="F33" s="17"/>
       <c r="G33" s="17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H33" s="18" t="s">
         <v>67</v>
@@ -4402,7 +4411,7 @@
       </c>
       <c r="F34" s="17"/>
       <c r="G34" s="17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H34" s="18" t="s">
         <v>67</v>
@@ -4433,7 +4442,7 @@
       </c>
       <c r="F35" s="17"/>
       <c r="G35" s="17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H35" s="18" t="s">
         <v>67</v>
@@ -4464,7 +4473,7 @@
       </c>
       <c r="F36" s="17"/>
       <c r="G36" s="17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H36" s="18" t="s">
         <v>67</v>
@@ -4495,7 +4504,7 @@
       </c>
       <c r="F37" s="17"/>
       <c r="G37" s="17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H37" s="18" t="s">
         <v>81</v>
@@ -4526,7 +4535,7 @@
       </c>
       <c r="F38" s="17"/>
       <c r="G38" s="17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H38" s="18" t="s">
         <v>31</v>
@@ -4557,7 +4566,7 @@
       </c>
       <c r="F39" s="17"/>
       <c r="G39" s="17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H39" s="18"/>
       <c r="I39" s="19"/>
@@ -4582,7 +4591,7 @@
       </c>
       <c r="F40" s="17"/>
       <c r="G40" s="17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H40" s="18" t="s">
         <v>67</v>
@@ -4605,7 +4614,7 @@
       <c r="E41" s="16"/>
       <c r="F41" s="17"/>
       <c r="G41" s="17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H41" s="18"/>
       <c r="I41" s="19"/>
@@ -4620,7 +4629,7 @@
       <c r="E42" s="16"/>
       <c r="F42" s="17"/>
       <c r="G42" s="17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H42" s="18"/>
       <c r="I42" s="23" t="s">
@@ -4637,7 +4646,7 @@
       <c r="E43" s="16"/>
       <c r="F43" s="17"/>
       <c r="G43" s="17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H43" s="18"/>
       <c r="I43" s="19"/>
@@ -4656,7 +4665,7 @@
       </c>
       <c r="F44" s="17"/>
       <c r="G44" s="17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H44" s="18" t="s">
         <v>81</v>
@@ -4683,7 +4692,7 @@
       </c>
       <c r="F45" s="17"/>
       <c r="G45" s="17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H45" s="18" t="s">
         <v>36</v>
@@ -4710,7 +4719,7 @@
       </c>
       <c r="F46" s="17"/>
       <c r="G46" s="17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H46" s="18" t="s">
         <v>67</v>
@@ -4737,7 +4746,7 @@
       </c>
       <c r="F47" s="17"/>
       <c r="G47" s="17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H47" s="18" t="s">
         <v>81</v>
@@ -4762,7 +4771,7 @@
       </c>
       <c r="F48" s="17"/>
       <c r="G48" s="17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H48" s="18" t="s">
         <v>81</v>
@@ -5454,8 +5463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="B6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5558,7 +5567,7 @@
       </c>
       <c r="B7" s="25">
         <f>COUNTA(D17:D995)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -5573,7 +5582,7 @@
       </c>
       <c r="B8" s="25">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 1")</f>
@@ -5591,7 +5600,7 @@
       </c>
       <c r="B9" s="25">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
@@ -5609,7 +5618,7 @@
       </c>
       <c r="B10" s="25">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
@@ -5627,7 +5636,7 @@
       </c>
       <c r="B11" s="25">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
@@ -5645,7 +5654,7 @@
       </c>
       <c r="B12" s="25">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
@@ -5663,7 +5672,7 @@
       </c>
       <c r="B13" s="25">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
@@ -5681,11 +5690,11 @@
       </c>
       <c r="B14" s="25">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C14" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
@@ -5746,10 +5755,10 @@
         <v>137</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E18" s="37" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="F18" s="38"/>
     </row>
@@ -5764,10 +5773,10 @@
         <v>137</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="F19" s="38"/>
     </row>
@@ -5782,10 +5791,10 @@
         <v>137</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E20" s="37" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="F20" s="38"/>
     </row>
@@ -5794,29 +5803,35 @@
         <v>5</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>137</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F21" s="38"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="4">
         <v>6</v>
       </c>
-      <c r="B22" s="35"/>
+      <c r="B22" s="35" t="s">
+        <v>35</v>
+      </c>
       <c r="C22" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D22" s="39"/>
-      <c r="E22" s="37"/>
+      <c r="D22" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>140</v>
+      </c>
       <c r="F22" s="38"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">

--- a/P05/Scrum_ELSA_Sprint_1.xlsx
+++ b/P05/Scrum_ELSA_Sprint_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachaelrocha/Documents/GitHub/cse1325/P05/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA985419-1AB3-E142-B1F4-C632E2008D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7344ADF4-7060-4A4B-9561-70E11074487E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40500" yWindow="500" windowWidth="35200" windowHeight="18660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40440" yWindow="500" windowWidth="35200" windowHeight="18660" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="149">
   <si>
     <t>Product Name:</t>
   </si>
@@ -486,6 +486,9 @@
   </si>
   <si>
     <t>Data Validation</t>
+  </si>
+  <si>
+    <t>Write Computer Class</t>
   </si>
 </sst>
 </file>
@@ -990,19 +993,19 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1287,28 +1290,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3663,8 +3666,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3872,11 +3875,11 @@
       </c>
       <c r="B13" s="5">
         <f>B12-C13</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="9">
         <f>COUNTIF(G$24:G$100,"Finished in Sprint 1")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="5"/>
@@ -3896,7 +3899,7 @@
       </c>
       <c r="B14" s="5">
         <f>B13-C14</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="9">
         <f>COUNTIF(G$24:G$100,"Finished in Sprint 2")</f>
@@ -3920,7 +3923,7 @@
       </c>
       <c r="B15" s="5">
         <f>B14-C15</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="9">
         <f>COUNTIF(G$24:G$100,"Finished in Sprint 3")</f>
@@ -3944,7 +3947,7 @@
       </c>
       <c r="B16" s="5">
         <f>B15-C16</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="9">
         <f>COUNTIF(G$24:G$100,"Finished in Sprint 4")</f>
@@ -3964,7 +3967,7 @@
       </c>
       <c r="B17" s="5">
         <f>B16-C17</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="9">
         <f>COUNTIF(G$24:G$100,"Finished in Sprint 4")</f>
@@ -4132,7 +4135,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H25" s="18" t="s">
         <v>36</v>
@@ -4165,7 +4168,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H26" s="18" t="s">
         <v>31</v>
@@ -5463,8 +5466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView topLeftCell="B6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5567,7 +5570,7 @@
       </c>
       <c r="B7" s="25">
         <f>COUNTA(D17:D995)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -5582,7 +5585,7 @@
       </c>
       <c r="B8" s="25">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 1")</f>
@@ -5600,7 +5603,7 @@
       </c>
       <c r="B9" s="25">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
@@ -5618,7 +5621,7 @@
       </c>
       <c r="B10" s="25">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
@@ -5636,7 +5639,7 @@
       </c>
       <c r="B11" s="25">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
@@ -5654,7 +5657,7 @@
       </c>
       <c r="B12" s="25">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
@@ -5672,7 +5675,7 @@
       </c>
       <c r="B13" s="25">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
@@ -5690,11 +5693,11 @@
       </c>
       <c r="B14" s="25">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
@@ -5812,7 +5815,7 @@
         <v>146</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F21" s="38"/>
     </row>
@@ -5830,23 +5833,29 @@
         <v>147</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F22" s="38"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="4">
         <v>7</v>
       </c>
-      <c r="B23" s="35"/>
+      <c r="B23" s="35" t="s">
+        <v>40</v>
+      </c>
       <c r="C23" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D23" s="39"/>
-      <c r="E23" s="37"/>
+      <c r="D23" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>140</v>
+      </c>
       <c r="F23" s="38"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
         <v>8</v>
       </c>
@@ -5855,7 +5864,9 @@
         <v>137</v>
       </c>
       <c r="D24" s="39"/>
-      <c r="E24" s="37"/>
+      <c r="E24" s="37" t="s">
+        <v>140</v>
+      </c>
       <c r="F24" s="38"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">

--- a/P05/Scrum_ELSA_Sprint_1.xlsx
+++ b/P05/Scrum_ELSA_Sprint_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachaelrocha/Documents/GitHub/cse1325/P05/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7344ADF4-7060-4A4B-9561-70E11074487E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12971DFD-EB0F-974B-ACFA-2FFC86AFA297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40440" yWindow="500" windowWidth="35200" windowHeight="18660" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40440" yWindow="500" windowWidth="35200" windowHeight="18660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="151">
   <si>
     <t>Product Name:</t>
   </si>
@@ -482,13 +482,19 @@
     <t>Completed Day 7</t>
   </si>
   <si>
-    <t>Write Object Class</t>
-  </si>
-  <si>
     <t>Data Validation</t>
   </si>
   <si>
     <t>Write Computer Class</t>
+  </si>
+  <si>
+    <t>Write Order Class</t>
+  </si>
+  <si>
+    <t>Add to Github</t>
+  </si>
+  <si>
+    <t>Write Option Class</t>
   </si>
 </sst>
 </file>
@@ -993,19 +999,19 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1290,28 +1296,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3666,8 +3672,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ94"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3875,11 +3881,11 @@
       </c>
       <c r="B13" s="5">
         <f>B12-C13</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13" s="9">
         <f>COUNTIF(G$24:G$100,"Finished in Sprint 1")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="5"/>
@@ -3899,7 +3905,7 @@
       </c>
       <c r="B14" s="5">
         <f>B13-C14</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C14" s="9">
         <f>COUNTIF(G$24:G$100,"Finished in Sprint 2")</f>
@@ -3923,7 +3929,7 @@
       </c>
       <c r="B15" s="5">
         <f>B14-C15</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" s="9">
         <f>COUNTIF(G$24:G$100,"Finished in Sprint 3")</f>
@@ -3947,7 +3953,7 @@
       </c>
       <c r="B16" s="5">
         <f>B15-C16</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C16" s="9">
         <f>COUNTIF(G$24:G$100,"Finished in Sprint 4")</f>
@@ -3967,7 +3973,7 @@
       </c>
       <c r="B17" s="5">
         <f>B16-C17</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C17" s="9">
         <f>COUNTIF(G$24:G$100,"Finished in Sprint 4")</f>
@@ -4168,7 +4174,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H26" s="18" t="s">
         <v>31</v>
@@ -4199,7 +4205,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H27" s="18" t="s">
         <v>31</v>
@@ -4230,7 +4236,7 @@
         <v>1</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H28" s="18" t="s">
         <v>31</v>
@@ -5466,8 +5472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5570,7 +5576,7 @@
       </c>
       <c r="B7" s="25">
         <f>COUNTA(D17:D995)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -5585,7 +5591,7 @@
       </c>
       <c r="B8" s="25">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C8" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 1")</f>
@@ -5603,7 +5609,7 @@
       </c>
       <c r="B9" s="25">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C9" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
@@ -5621,7 +5627,7 @@
       </c>
       <c r="B10" s="25">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C10" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
@@ -5639,7 +5645,7 @@
       </c>
       <c r="B11" s="25">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C11" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
@@ -5657,7 +5663,7 @@
       </c>
       <c r="B12" s="25">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C12" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
@@ -5675,7 +5681,7 @@
       </c>
       <c r="B13" s="25">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C13" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
@@ -5693,11 +5699,11 @@
       </c>
       <c r="B14" s="25">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
@@ -5812,7 +5818,7 @@
         <v>137</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E21" s="37" t="s">
         <v>145</v>
@@ -5830,7 +5836,7 @@
         <v>137</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E22" s="37" t="s">
         <v>145</v>
@@ -5848,10 +5854,10 @@
         <v>137</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E23" s="37" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F23" s="38"/>
     </row>
@@ -5859,50 +5865,72 @@
       <c r="A24" s="4">
         <v>8</v>
       </c>
-      <c r="B24" s="35"/>
+      <c r="B24" s="35" t="s">
+        <v>43</v>
+      </c>
       <c r="C24" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D24" s="39"/>
+      <c r="D24" s="39" t="s">
+        <v>148</v>
+      </c>
       <c r="E24" s="37" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F24" s="38"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
         <v>9</v>
       </c>
-      <c r="B25" s="35"/>
+      <c r="B25" s="35" t="s">
+        <v>43</v>
+      </c>
       <c r="C25" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D25" s="39"/>
-      <c r="E25" s="37"/>
+      <c r="D25" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="E25" s="37" t="s">
+        <v>145</v>
+      </c>
       <c r="F25" s="38"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
         <v>10</v>
       </c>
-      <c r="B26" s="35"/>
+      <c r="B26" s="35" t="s">
+        <v>40</v>
+      </c>
       <c r="C26" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D26" s="39"/>
-      <c r="E26" s="37"/>
+      <c r="D26" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>145</v>
+      </c>
       <c r="F26" s="38"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
         <v>11</v>
       </c>
-      <c r="B27" s="35"/>
+      <c r="B27" s="35" t="s">
+        <v>35</v>
+      </c>
       <c r="C27" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D27" s="39"/>
-      <c r="E27" s="37"/>
+      <c r="D27" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="E27" s="37" t="s">
+        <v>145</v>
+      </c>
       <c r="F27" s="38"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">

--- a/P05/Scrum_ELSA_Sprint_1.xlsx
+++ b/P05/Scrum_ELSA_Sprint_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachaelrocha/Documents/GitHub/cse1325/P05/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12971DFD-EB0F-974B-ACFA-2FFC86AFA297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288B31EF-9138-DA48-BF63-E4902AB91BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40440" yWindow="500" windowWidth="35200" windowHeight="18660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40440" yWindow="500" windowWidth="35200" windowHeight="18660" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="153">
   <si>
     <t>Product Name:</t>
   </si>
@@ -495,6 +495,12 @@
   </si>
   <si>
     <t>Write Option Class</t>
+  </si>
+  <si>
+    <t>Editing to fit my code</t>
+  </si>
+  <si>
+    <t>Testing</t>
   </si>
 </sst>
 </file>
@@ -1296,25 +1302,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1</c:v>
@@ -3672,8 +3678,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5472,8 +5478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5576,7 +5582,7 @@
       </c>
       <c r="B7" s="25">
         <f>COUNTA(D17:D995)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -5591,7 +5597,7 @@
       </c>
       <c r="B8" s="25">
         <f t="shared" ref="B8:B14" si="0">B7-C8</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C8" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 1")</f>
@@ -5609,7 +5615,7 @@
       </c>
       <c r="B9" s="25">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C9" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
@@ -5627,7 +5633,7 @@
       </c>
       <c r="B10" s="25">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C10" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
@@ -5645,7 +5651,7 @@
       </c>
       <c r="B11" s="25">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C11" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
@@ -5663,7 +5669,7 @@
       </c>
       <c r="B12" s="25">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C12" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
@@ -5681,7 +5687,7 @@
       </c>
       <c r="B13" s="25">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C13" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
@@ -5703,7 +5709,7 @@
       </c>
       <c r="C14" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
@@ -5933,40 +5939,58 @@
       </c>
       <c r="F27" s="38"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="4">
         <v>12</v>
       </c>
-      <c r="B28" s="35"/>
+      <c r="B28" s="35" t="s">
+        <v>46</v>
+      </c>
       <c r="C28" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D28" s="39"/>
-      <c r="E28" s="37"/>
+      <c r="D28" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="E28" s="37" t="s">
+        <v>145</v>
+      </c>
       <c r="F28" s="38"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="4">
         <v>13</v>
       </c>
-      <c r="B29" s="35"/>
+      <c r="B29" s="35" t="s">
+        <v>46</v>
+      </c>
       <c r="C29" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D29" s="39"/>
-      <c r="E29" s="37"/>
+      <c r="D29" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>145</v>
+      </c>
       <c r="F29" s="38"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="4">
         <v>14</v>
       </c>
-      <c r="B30" s="35"/>
+      <c r="B30" s="35" t="s">
+        <v>46</v>
+      </c>
       <c r="C30" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D30" s="39"/>
-      <c r="E30" s="37"/>
+      <c r="D30" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="E30" s="37" t="s">
+        <v>145</v>
+      </c>
       <c r="F30" s="38"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">

--- a/P05/Scrum_ELSA_Sprint_1.xlsx
+++ b/P05/Scrum_ELSA_Sprint_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachaelrocha/Documents/GitHub/cse1325/P05/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288B31EF-9138-DA48-BF63-E4902AB91BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D6D6A6-3B5D-7B4B-835B-B1C4FFB44328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40440" yWindow="500" windowWidth="35200" windowHeight="18660" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40440" yWindow="500" windowWidth="35200" windowHeight="18660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="152">
   <si>
     <t>Product Name:</t>
   </si>
@@ -462,9 +462,6 @@
   </si>
   <si>
     <t>Finished in Sprint 1</t>
-  </si>
-  <si>
-    <t>In Work</t>
   </si>
   <si>
     <t>Not Started</t>
@@ -1005,19 +1002,19 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3678,8 +3675,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ94"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3887,11 +3884,11 @@
       </c>
       <c r="B13" s="5">
         <f>B12-C13</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="9">
         <f>COUNTIF(G$24:G$100,"Finished in Sprint 1")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="5"/>
@@ -3911,7 +3908,7 @@
       </c>
       <c r="B14" s="5">
         <f>B13-C14</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="9">
         <f>COUNTIF(G$24:G$100,"Finished in Sprint 2")</f>
@@ -3935,7 +3932,7 @@
       </c>
       <c r="B15" s="5">
         <f>B14-C15</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="9">
         <f>COUNTIF(G$24:G$100,"Finished in Sprint 3")</f>
@@ -3959,7 +3956,7 @@
       </c>
       <c r="B16" s="5">
         <f>B15-C16</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="9">
         <f>COUNTIF(G$24:G$100,"Finished in Sprint 4")</f>
@@ -3979,7 +3976,7 @@
       </c>
       <c r="B17" s="5">
         <f>B16-C17</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="9">
         <f>COUNTIF(G$24:G$100,"Finished in Sprint 4")</f>
@@ -4242,7 +4239,7 @@
         <v>1</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H28" s="18" t="s">
         <v>31</v>
@@ -4271,7 +4268,7 @@
       </c>
       <c r="F29" s="17"/>
       <c r="G29" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H29" s="18" t="s">
         <v>31</v>
@@ -4302,7 +4299,7 @@
       </c>
       <c r="F30" s="17"/>
       <c r="G30" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H30" s="18" t="s">
         <v>31</v>
@@ -4333,7 +4330,7 @@
       </c>
       <c r="F31" s="17"/>
       <c r="G31" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H31" s="18" t="s">
         <v>31</v>
@@ -4364,7 +4361,7 @@
       </c>
       <c r="F32" s="17"/>
       <c r="G32" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H32" s="18" t="s">
         <v>62</v>
@@ -4395,7 +4392,7 @@
       </c>
       <c r="F33" s="17"/>
       <c r="G33" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H33" s="18" t="s">
         <v>67</v>
@@ -4426,7 +4423,7 @@
       </c>
       <c r="F34" s="17"/>
       <c r="G34" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H34" s="18" t="s">
         <v>67</v>
@@ -4457,7 +4454,7 @@
       </c>
       <c r="F35" s="17"/>
       <c r="G35" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H35" s="18" t="s">
         <v>67</v>
@@ -4488,7 +4485,7 @@
       </c>
       <c r="F36" s="17"/>
       <c r="G36" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H36" s="18" t="s">
         <v>67</v>
@@ -4519,7 +4516,7 @@
       </c>
       <c r="F37" s="17"/>
       <c r="G37" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H37" s="18" t="s">
         <v>81</v>
@@ -4550,7 +4547,7 @@
       </c>
       <c r="F38" s="17"/>
       <c r="G38" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H38" s="18" t="s">
         <v>31</v>
@@ -4581,7 +4578,7 @@
       </c>
       <c r="F39" s="17"/>
       <c r="G39" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H39" s="18"/>
       <c r="I39" s="19"/>
@@ -4606,7 +4603,7 @@
       </c>
       <c r="F40" s="17"/>
       <c r="G40" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H40" s="18" t="s">
         <v>67</v>
@@ -4629,7 +4626,7 @@
       <c r="E41" s="16"/>
       <c r="F41" s="17"/>
       <c r="G41" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H41" s="18"/>
       <c r="I41" s="19"/>
@@ -4644,7 +4641,7 @@
       <c r="E42" s="16"/>
       <c r="F42" s="17"/>
       <c r="G42" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H42" s="18"/>
       <c r="I42" s="23" t="s">
@@ -4661,7 +4658,7 @@
       <c r="E43" s="16"/>
       <c r="F43" s="17"/>
       <c r="G43" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H43" s="18"/>
       <c r="I43" s="19"/>
@@ -4680,7 +4677,7 @@
       </c>
       <c r="F44" s="17"/>
       <c r="G44" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H44" s="18" t="s">
         <v>81</v>
@@ -4707,7 +4704,7 @@
       </c>
       <c r="F45" s="17"/>
       <c r="G45" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H45" s="18" t="s">
         <v>36</v>
@@ -4734,7 +4731,7 @@
       </c>
       <c r="F46" s="17"/>
       <c r="G46" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H46" s="18" t="s">
         <v>67</v>
@@ -4761,7 +4758,7 @@
       </c>
       <c r="F47" s="17"/>
       <c r="G47" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H47" s="18" t="s">
         <v>81</v>
@@ -4786,7 +4783,7 @@
       </c>
       <c r="F48" s="17"/>
       <c r="G48" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H48" s="18" t="s">
         <v>81</v>
@@ -5478,7 +5475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
@@ -5770,10 +5767,10 @@
         <v>137</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E18" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F18" s="38"/>
     </row>
@@ -5788,10 +5785,10 @@
         <v>137</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F19" s="38"/>
     </row>
@@ -5806,10 +5803,10 @@
         <v>137</v>
       </c>
       <c r="D20" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="E20" s="37" t="s">
         <v>144</v>
-      </c>
-      <c r="E20" s="37" t="s">
-        <v>145</v>
       </c>
       <c r="F20" s="38"/>
     </row>
@@ -5824,10 +5821,10 @@
         <v>137</v>
       </c>
       <c r="D21" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F21" s="38"/>
     </row>
@@ -5842,10 +5839,10 @@
         <v>137</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F22" s="38"/>
     </row>
@@ -5860,10 +5857,10 @@
         <v>137</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E23" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F23" s="38"/>
     </row>
@@ -5878,10 +5875,10 @@
         <v>137</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E24" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F24" s="38"/>
     </row>
@@ -5896,10 +5893,10 @@
         <v>137</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E25" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F25" s="38"/>
     </row>
@@ -5914,10 +5911,10 @@
         <v>137</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E26" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F26" s="38"/>
     </row>
@@ -5932,10 +5929,10 @@
         <v>137</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E27" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F27" s="38"/>
     </row>
@@ -5950,10 +5947,10 @@
         <v>137</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E28" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F28" s="38"/>
     </row>
@@ -5968,10 +5965,10 @@
         <v>137</v>
       </c>
       <c r="D29" s="39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E29" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F29" s="38"/>
     </row>
@@ -5986,10 +5983,10 @@
         <v>137</v>
       </c>
       <c r="D30" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E30" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F30" s="38"/>
     </row>
